--- a/biology/Botanique/Orobanche_amethystea/Orobanche_amethystea.xlsx
+++ b/biology/Botanique/Orobanche_amethystea/Orobanche_amethystea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche du Panicaut
 Orobanche amethystea, l'Orobanche du Panicaut ou Orobanche couleur d'améthyste, est une plante herbacée de la famille des Orobanchacées. C'est une espèce parasite dépourvue de chlorophylle.
@@ -512,7 +524,9 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Orobanche du panicaut parasite essentiellement Eryngium campestre, le Panicaut des prés.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches, garrigue.
 </t>
@@ -574,7 +590,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. Elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier: elle est considérée vulnérable (VU) en Alsace et en Basse-Normandie.
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Orobanche attica Reut.
 Orobanche eryngii Duby</t>
